--- a/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>718.909489591081</v>
+        <v>68.031511173418</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000028030999782257</v>
+        <v>0.0000000000000590756560283827</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>68.031511173418</v>
+        <v>367.012329540732</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0000000000000590756560283827</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000371788649187058</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>367.012329540732</v>
+        <v>367.012329528994</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000371788649187058</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000371788651357133</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_main_effects_hab_np.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>367.012329528994</v>
+        <v>367.012329527333</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000371788651357133</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000371788651664297</v>
       </c>
     </row>
   </sheetData>
